--- a/delta2/lib/htool/htool_evidence.xlsx
+++ b/delta2/lib/htool/htool_evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90BBAB5-8693-E942-AFB0-272524A52027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F2EFA-5E4C-494D-9C5B-6B0B231D0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>evidence_object</t>
   </si>
@@ -128,9 +128,6 @@
     <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1482/T1482.md#atomic-test-4---adfind---enumerate-active-directory-ous</t>
   </si>
   <si>
-    <t>"guid": "d1c73b96-ab87-4031-bad8-0e1b3b8bf3ec"}</t>
-  </si>
-  <si>
     <t>{"process_command_line": r'''"path\AdFind.exe -f (objectcategory=organizationalUnit)"'''}</t>
   </si>
   <si>
@@ -201,6 +198,24 @@
   </si>
   <si>
     <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc adinfo  &gt;adinfo.txt'''}</t>
+  </si>
+  <si>
+    <t>{"guid": "d1c73b96-ab87-4031-bad8-0e1b3b8bf3ec"}</t>
+  </si>
+  <si>
+    <t>["dsquery"]</t>
+  </si>
+  <si>
+    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1482/T1482.md#atomic-test-1---windows---discover-domain-trusts-with-dsquery</t>
+  </si>
+  <si>
+    <t>{"guid": "4700a710-c821-4e17-a3ec-9e4c81d6845f"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line":r'''dsquery * -filter "(objectClass=trustedDomain)" -attr *'''}</t>
+  </si>
+  <si>
+    <t>eid_0020</t>
   </si>
 </sst>
 </file>
@@ -290,8 +305,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G20" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G21" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="E1:E19"/>
   </sortState>
@@ -625,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,10 +697,10 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -702,13 +717,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -719,19 +734,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -742,19 +757,19 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -765,19 +780,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -788,19 +803,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -811,19 +826,19 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -834,19 +849,19 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -857,19 +872,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -880,19 +895,19 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -903,19 +918,19 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -926,19 +941,19 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -949,19 +964,19 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -972,19 +987,19 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -995,19 +1010,19 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1018,19 +1033,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1041,19 +1056,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1064,19 +1079,19 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1087,19 +1102,42 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
